--- a/Communication_Outreach_Marketing/sample-budget.xlsx
+++ b/Communication_Outreach_Marketing/sample-budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\first-fs10\Projects\FIRST Tech Challenge\2023 Season\Team Resources\Sample Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Subha\RoboPhantoms 2023\FTC_2023\Communication_Outreach_Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{038200C1-F9D3-4951-8878-326E7916E271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AA594E-DB0F-4FFF-9C41-64719CC18A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Budget Amt.</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Pit Display</t>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Projected total expenses for the season. Actual Costs may be lower/higher, but it’s best to plan high.</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
   </si>
   <si>
     <t>Income</t>
-  </si>
-  <si>
-    <t>Some schools provide clubs and organizations with a set amount of money each year.</t>
   </si>
   <si>
     <t>Fundraiser</t>
@@ -119,6 +107,113 @@
   </si>
   <si>
     <t>Tournament Registration</t>
+  </si>
+  <si>
+    <t>Rookie Team Season Budget</t>
+  </si>
+  <si>
+    <t>State Championship Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Championshiop fees vary by region. </t>
+  </si>
+  <si>
+    <t>Game Supplies</t>
+  </si>
+  <si>
+    <t>Program Registration Fee – North America</t>
+  </si>
+  <si>
+    <t>Season registration fee. (Required for North America teams).</t>
+  </si>
+  <si>
+    <t>Kit of Parts: Competition Set</t>
+  </si>
+  <si>
+    <t>Rookie teams will likely need to invest in purchasing some basic, essential tools. This cost can be reduced by borrowing tools, or by receiving them as donations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In most regions, teams will be required to pay a fee to register for and compete at an event. Fees will vary by region. </t>
+  </si>
+  <si>
+    <t>Event Registration</t>
+  </si>
+  <si>
+    <t>Scoring Elements</t>
+  </si>
+  <si>
+    <t>At minimum, teams should plan to purchase a couple of scoring elements for the seasons game to practice with prior to competitions. Teams may also opt to purchase a full or partial field with scoring elements (if they have additional space/budget. See “Optional Expenses” Section).</t>
+  </si>
+  <si>
+    <t>Registration, Robot, and Event Expenses</t>
+  </si>
+  <si>
+    <t>Startup Funding, Grants, and Fundraising</t>
+  </si>
+  <si>
+    <t>Fundraiser 1 (example: Carwash)</t>
+  </si>
+  <si>
+    <t>Fundraiser 2 (example: requesting local business support)</t>
+  </si>
+  <si>
+    <t>Fundraiser 3 (example: Social media funding campaign)</t>
+  </si>
+  <si>
+    <t>Optional Expenses</t>
+  </si>
+  <si>
+    <t>*Please note that the above are examples only. Actual amounts will vary and are not guaranteed.</t>
+  </si>
+  <si>
+    <t>Game Set</t>
+  </si>
+  <si>
+    <t>To promote the team and show spirit.</t>
+  </si>
+  <si>
+    <t>To promote the team and raise funds.</t>
+  </si>
+  <si>
+    <t>To promote the team at events. At minimum, teams can create poster boards showcasing their team members, their robot build designs, and outreach efforts. Some teams also choose to purchase decorations; however, this is at the discretion of each team.</t>
+  </si>
+  <si>
+    <t>Projected total optional expenses for the season. Actual Costs may be lower/higher, but it’s best to plan high.</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Subtotal*</t>
+  </si>
+  <si>
+    <t>Fundraising</t>
+  </si>
+  <si>
+    <t>Potential Optional Expenses</t>
+  </si>
+  <si>
+    <r>
+      <t>Credit/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Deficit</t>
+    </r>
+  </si>
+  <si>
+    <t>Kit of Parts: Control Communication Set</t>
+  </si>
+  <si>
+    <t>Rookie teams will need to start with robot materials build kit. This price reflects the TETRIX ($630.00) build kit and the REV ($585.00) build kit available in the Storefront. This cost may be lower for veteran teams who reuse a kit each year.</t>
+  </si>
+  <si>
+    <t>Rookie teams will need to purchase a Control Hub. Veteran teams may need to purchase a replacement.</t>
   </si>
   <si>
     <r>
@@ -140,178 +235,53 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Tech Challenge Team #### - Nickname</t>
+      <t xml:space="preserve"> Tech Challenge Team - Robo-Phantoms</t>
     </r>
   </si>
   <si>
-    <t>Rookie Team Season Budget</t>
-  </si>
-  <si>
-    <t>State Championship Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Championshiop fees vary by region. </t>
-  </si>
-  <si>
-    <t>Game Supplies</t>
-  </si>
-  <si>
-    <t>Program Registration Fee – North America</t>
-  </si>
-  <si>
-    <t>Season registration fee. (Required for North America teams).</t>
-  </si>
-  <si>
-    <t>Program Registration Fee – International</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International teams (outside North America) are not required to pay the season registration fee with FIRST Headquarters. However, there may be fees assessed by the local international Affiliate Partner </t>
-  </si>
-  <si>
-    <t>Rookie teams will need to purchase the Technology used in FIRST Tech Challenge, primarily phones and adapters for events. Veteran teams may need replacements.</t>
-  </si>
-  <si>
-    <t>Kit of Parts: Competition Set</t>
-  </si>
-  <si>
-    <t>Rookie teams will likely need to invest in purchasing some basic, essential tools. This cost can be reduced by borrowing tools, or by receiving them as donations.</t>
-  </si>
-  <si>
-    <t>Misc. Parts &amp; Supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In most regions, teams will be required to pay a fee to register for and compete at an event. Fees will vary by region. </t>
-  </si>
-  <si>
-    <t>Event Registration</t>
-  </si>
-  <si>
-    <t>Scoring Elements</t>
-  </si>
-  <si>
-    <t>At minimum, teams should plan to purchase a couple of scoring elements for the seasons game to practice with prior to competitions. Teams may also opt to purchase a full or partial field with scoring elements (if they have additional space/budget. See “Optional Expenses” Section).</t>
-  </si>
-  <si>
-    <t>Registration, Robot, and Event Expenses</t>
-  </si>
-  <si>
-    <t>Startup Funding, Grants, and Fundraising</t>
-  </si>
-  <si>
-    <t>Teams should reach out to their regional contact for information about grants offered to local teams in their region.</t>
-  </si>
-  <si>
-    <t>Grants (Local)</t>
-  </si>
-  <si>
-    <t>School or Organization Allocated funds</t>
-  </si>
-  <si>
-    <t>Family and Friends</t>
-  </si>
-  <si>
-    <t>Ask family or friends if they can donate to your needed expenses.</t>
-  </si>
-  <si>
-    <t>Fundraiser 1 (example: Carwash)</t>
-  </si>
-  <si>
-    <t>Fundraiser 2 (example: requesting local business support)</t>
-  </si>
-  <si>
-    <t>Fundraiser 3 (example: Social media funding campaign)</t>
-  </si>
-  <si>
-    <t>There are many creative ways teams can fundraise to help cover costs of travel, robot parts, etc. These are just some examples of how teams can raise funds. For more examples and ideas, check out our Fundraising Guide and Fundraising Toolkit.</t>
-  </si>
-  <si>
-    <t>Optional Expenses</t>
-  </si>
-  <si>
-    <t>*Please note that the above are examples only. Actual amounts will vary and are not guaranteed.</t>
-  </si>
-  <si>
-    <t>Game Set</t>
-  </si>
-  <si>
-    <t>To promote the team and show spirit.</t>
-  </si>
-  <si>
-    <t>To promote the team and raise funds.</t>
-  </si>
-  <si>
-    <t>To promote the team at events. At minimum, teams can create poster boards showcasing their team members, their robot build designs, and outreach efforts. Some teams also choose to purchase decorations; however, this is at the discretion of each team.</t>
-  </si>
-  <si>
-    <t>Projected total optional expenses for the season. Actual Costs may be lower/higher, but it’s best to plan high.</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Subtotal*</t>
-  </si>
-  <si>
-    <t>Fundraising</t>
-  </si>
-  <si>
-    <t>Potential Optional Expenses</t>
-  </si>
-  <si>
-    <r>
-      <t>Credit/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Deficit</t>
-    </r>
-  </si>
-  <si>
-    <t>Kit of Parts: Control Communication Set</t>
-  </si>
-  <si>
-    <t>REV Control Hub</t>
-  </si>
-  <si>
-    <t>$630.00
-OR 
-$585.00</t>
-  </si>
-  <si>
-    <t>Rookie teams will need to start with robot materials build kit. This price reflects the TETRIX ($630.00) build kit and the REV ($585.00) build kit available in the Storefront. This cost may be lower for veteran teams who reuse a kit each year.</t>
-  </si>
-  <si>
-    <t>Getting the team and the robot to the event often takes a bus. Travel costs will vary by region.</t>
-  </si>
-  <si>
-    <t>Think about if you plan to feed the team at meetings and/or events. Travel costs will vary by region.</t>
-  </si>
-  <si>
-    <t>$350.00 - $460.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teams can opt to purchase a full game set ($460.00) for at home practice prior to competing. AndyMark also offers a partial game set ($350.00), as well as individual game field components that can be purchases separately. </t>
-  </si>
-  <si>
-    <t>Updated 5.24.23</t>
-  </si>
-  <si>
-    <t>Rookie teams will need to purchase a Control Hub. Veteran teams may need to purchase a replacement.</t>
+    <t xml:space="preserve">Family </t>
+  </si>
+  <si>
+    <t>Parents paid $200 /student in the week of Sep 5. Purpose : To register, Purchase FTC Starter kit</t>
+  </si>
+  <si>
+    <t>Yellow Jacket Planetary Gear Motor</t>
+  </si>
+  <si>
+    <t>Gobilda Chassis kit</t>
+  </si>
+  <si>
+    <t>Parents paid $300/ student in the week of October 2, 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchased game set from Andy Mark.. </t>
+  </si>
+  <si>
+    <t>Actual Amt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM </t>
+  </si>
+  <si>
+    <t>Sponsorship from IBM.</t>
+  </si>
+  <si>
+    <t>Updated 10.22.2023</t>
+  </si>
+  <si>
+    <t>Rookie teams will need to purchase a Control Hub.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,12 +322,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -383,6 +347,18 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -554,18 +530,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,25 +553,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,23 +592,14 @@
     <xf numFmtId="8" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -652,25 +611,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,8 +641,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -761,14 +767,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -806,9 +808,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,26 +843,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,26 +878,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1086,591 +1054,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5546875" style="5" customWidth="1"/>
-    <col min="6" max="9" width="9.109375" style="5"/>
-    <col min="10" max="10" width="12" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="72.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" style="4" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" style="4"/>
+    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18">
+        <v>940.35</v>
+      </c>
+      <c r="C7" s="40">
+        <v>940.35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="18">
+        <v>453.98</v>
+      </c>
+      <c r="C8" s="40">
+        <v>453.98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="18">
+        <v>181</v>
+      </c>
+      <c r="C11" s="40">
+        <v>180.95</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="12"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="12"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="16">
+        <f>SUM(B6:B16)</f>
+        <v>1575.33</v>
+      </c>
+      <c r="C17" s="41">
+        <f>SUM(C6:C16)</f>
+        <v>1575.28</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C19" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="18">
+        <v>650</v>
+      </c>
+      <c r="C21" s="38">
+        <v>650.05999999999995</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1200</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1200</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1800</v>
+      </c>
+      <c r="C23" s="38">
+        <v>1800</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="16">
+        <f>SUM(B21:B26)</f>
+        <v>3650</v>
+      </c>
+      <c r="C27" s="41">
+        <f>SUM(C21:C26)</f>
+        <v>3650.06</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="21">
-        <v>295</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="21">
-        <v>275</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="21">
-        <v>295</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21">
-        <v>200</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="21">
-        <v>200</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="39">
+        <v>556.78</v>
+      </c>
+      <c r="C31" s="42">
+        <v>556.78</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="21">
-        <v>100</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="21">
-        <v>250</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21">
-        <v>200</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <v>200</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="23">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="E31" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2705</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="21">
-        <v>500</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="21">
-        <v>500</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="21">
-        <v>250</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="21">
-        <v>250</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="21">
-        <v>500</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="21">
-        <v>400</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="19">
-        <v>2400</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="21">
-        <v>215</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="21">
-        <v>60</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="21">
-        <v>50</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="26">
-        <v>785</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="E34" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="44">
+        <f>SUM(B31:B34)</f>
+        <v>556.78</v>
+      </c>
+      <c r="C35" s="43">
+        <f>SUM(C31:C34)</f>
+        <v>556.78</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="17">
+        <f>B17</f>
+        <v>1575.33</v>
+      </c>
+      <c r="C38" s="52">
+        <f>C17</f>
+        <v>1575.28</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="29">
-        <f>B18</f>
-        <v>2705</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B39" s="17">
+        <f>B27</f>
+        <v>3650</v>
+      </c>
+      <c r="C39" s="38">
+        <f>C27</f>
+        <v>3650.06</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="20">
-        <f>B28</f>
-        <v>2400</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="B40" s="46">
+        <f>B35</f>
+        <v>556.78</v>
+      </c>
+      <c r="C40" s="52">
+        <f>C35</f>
+        <v>556.78</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="45">
+        <f>B39-(B38+B40)</f>
+        <v>1517.8900000000003</v>
+      </c>
+      <c r="C41" s="53">
+        <f>C39-(C38+C40)</f>
+        <v>1518</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B41" s="29">
-        <f>B36</f>
-        <v>785</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="24">
-        <f>(B39+B41) -B40</f>
-        <v>1090</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
